--- a/codes/test_shell_output/testall_charOut.xlsx
+++ b/codes/test_shell_output/testall_charOut.xlsx
@@ -385,12 +385,12 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1">
-        <v>15.27651858567543</v>
+        <v>17.0338441890166</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1">
-        <v>15.27651858567543</v>
+        <v>17.0338441890166</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -400,12 +400,12 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>46.01087941976428</v>
+        <v>50.46296296296296</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>46.01087941976428</v>
+        <v>50.46296296296296</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -415,12 +415,12 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>20.35358114233908</v>
+        <v>18.8058748403576</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>20.35358114233908</v>
+        <v>18.8058748403576</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -430,12 +430,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1">
-        <v>16.00181323662738</v>
+        <v>11.94125159642401</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1">
-        <v>16.00181323662738</v>
+        <v>11.94125159642401</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_charOut.xlsx
+++ b/codes/test_shell_output/testall_charOut.xlsx
@@ -385,12 +385,12 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1">
-        <v>17.0338441890166</v>
+        <v>15.83476764199656</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1">
-        <v>17.0338441890166</v>
+        <v>15.83476764199656</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -400,12 +400,12 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>50.46296296296296</v>
+        <v>46.98795180722891</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>50.46296296296296</v>
+        <v>46.98795180722891</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -415,12 +415,12 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>18.8058748403576</v>
+        <v>20.41933969644813</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>18.8058748403576</v>
+        <v>20.41933969644813</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -430,12 +430,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1">
-        <v>11.94125159642401</v>
+        <v>14.89594742606791</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1">
-        <v>11.94125159642401</v>
+        <v>14.89594742606791</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_charOut.xlsx
+++ b/codes/test_shell_output/testall_charOut.xlsx
@@ -385,12 +385,12 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1">
-        <v>15.83476764199656</v>
+        <v>16.62030598052851</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1">
-        <v>15.83476764199656</v>
+        <v>16.62030598052851</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -400,12 +400,12 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1">
-        <v>46.98795180722891</v>
+        <v>47.14881780250348</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1">
-        <v>46.98795180722891</v>
+        <v>47.14881780250348</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -415,12 +415,12 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1">
-        <v>20.41933969644813</v>
+        <v>21.27955493741307</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1">
-        <v>20.41933969644813</v>
+        <v>21.27955493741307</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -430,12 +430,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1">
-        <v>14.89594742606791</v>
+        <v>14.15159944367177</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1">
-        <v>14.89594742606791</v>
+        <v>14.15159944367177</v>
       </c>
     </row>
   </sheetData>
